--- a/TestData/B.xlsx
+++ b/TestData/B.xlsx
@@ -974,10 +974,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A7" sqref="$A7:$XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1071,99 +1071,85 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>533</v>
+        <v>45</v>
       </c>
       <c r="C7">
         <v>963</v>
       </c>
       <c r="D7">
-        <v>145</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="C8">
-        <v>963</v>
+        <v>122</v>
       </c>
       <c r="D8">
-        <v>122</v>
+        <v>533</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="C9">
         <v>122</v>
       </c>
       <c r="D9">
-        <v>533</v>
+        <v>963</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C10">
-        <v>122</v>
+        <v>222</v>
       </c>
       <c r="D10">
-        <v>963</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>43</v>
+        <v>222</v>
       </c>
       <c r="C11">
-        <v>222</v>
+        <v>963</v>
       </c>
       <c r="D11">
-        <v>145</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>222</v>
+        <v>456</v>
       </c>
       <c r="C12">
-        <v>963</v>
+        <v>72</v>
       </c>
       <c r="D12">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>456</v>
-      </c>
-      <c r="C13">
-        <v>72</v>
-      </c>
-      <c r="D13">
         <v>124</v>
       </c>
     </row>
